--- a/classfiers/mega/elm/smote/ELM_tanh_smote_results.xlsx
+++ b/classfiers/mega/elm/smote/ELM_tanh_smote_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8046875</v>
+        <v>0.5539568345323741</v>
       </c>
       <c r="C2" t="n">
-        <v>0.569060773480663</v>
+        <v>0.4904458598726115</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5202702702702703</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7171504574819491</v>
+        <v>0.6096350775943978</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5220994475138122</v>
+        <v>0.5210843373493976</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6860254083484575</v>
+        <v>0.6851485148514852</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5303867403314917</v>
+        <v>0.4666666666666667</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.4862637362637363</v>
+        <v>0.5121212121212121</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6543438077634011</v>
+        <v>0.6773547094188376</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5751295336787565</v>
+        <v>0.5236686390532544</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4903581267217631</v>
+        <v>0.4819277108433735</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6580406654343808</v>
+        <v>0.6504065040650406</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5078125</v>
+        <v>0.5421348314606742</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8974358974358975</v>
+        <v>0.625</v>
       </c>
       <c r="C6" t="n">
-        <v>0.175</v>
+        <v>0.9946236559139785</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2928870292887029</v>
+        <v>0.7676348547717842</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5188088235294117</v>
+        <v>0.7608764855687605</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6401689415870417</v>
+        <v>0.5388180189692715</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7488121546961326</v>
+        <v>0.8970139031573179</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5915927155003218</v>
+        <v>0.6601629706754836</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5698576110043219</v>
+        <v>0.5805963400687507</v>
       </c>
     </row>
   </sheetData>
